--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0037217B-2940-48F1-82D9-AC62862AC417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423C5A9-AE76-403D-93B1-9D360F0B7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1080">
   <si>
     <t>2. What is your current legal name?</t>
   </si>
@@ -3653,7 +3653,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3766,11 +3766,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
@@ -4196,10 +4191,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18068277-4716-4691-B560-92987FEB33E6}">
   <dimension ref="A1:L3145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
+      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4209,7 +4204,7 @@
     <col min="3" max="3" width="83" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.28515625" style="27" customWidth="1"/>
     <col min="5" max="5" width="17" style="26" customWidth="1"/>
-    <col min="6" max="6" width="53" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.140625" style="26" customWidth="1"/>
     <col min="8" max="8" width="24" style="27" customWidth="1"/>
     <col min="9" max="9" width="71.85546875" style="27" customWidth="1"/>
@@ -4609,8 +4604,8 @@
       <c r="E14" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>803</v>
+      <c r="F14" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>949</v>
@@ -5230,8 +5225,8 @@
       <c r="E36" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>803</v>
+      <c r="F36" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G36" s="42" t="s">
         <v>960</v>
@@ -5257,8 +5252,8 @@
       <c r="E37" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>803</v>
+      <c r="F37" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>961</v>
@@ -5309,9 +5304,7 @@
       <c r="E39" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F39" s="42" t="s">
-        <v>803</v>
-      </c>
+      <c r="F39" s="26"/>
       <c r="G39" s="42" t="s">
         <v>960</v>
       </c>
@@ -5336,9 +5329,7 @@
       <c r="E40" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>803</v>
-      </c>
+      <c r="F40" s="42"/>
       <c r="G40" s="42" t="s">
         <v>961</v>
       </c>
@@ -10476,15 +10467,15 @@
       <c r="E237" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F237" s="42" t="s">
-        <v>803</v>
+      <c r="F237" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G237" s="42" t="s">
         <v>949</v>
       </c>
       <c r="H237" s="26"/>
       <c r="I237" s="42" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="J237" s="26" t="s">
         <v>938</v>
@@ -10542,15 +10533,15 @@
       <c r="E239" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F239" s="42" t="s">
-        <v>803</v>
+      <c r="F239" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G239" s="42" t="s">
         <v>960</v>
       </c>
       <c r="H239" s="26"/>
       <c r="I239" s="42" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="J239" s="26" t="s">
         <v>938</v>
@@ -11266,7 +11257,7 @@
       <c r="E261" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F261" s="44" t="s">
+      <c r="F261" s="26" t="s">
         <v>784</v>
       </c>
       <c r="G261" s="26" t="s">
@@ -11293,7 +11284,7 @@
       <c r="E262" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F262" s="44" t="s">
+      <c r="F262" s="26" t="s">
         <v>783</v>
       </c>
       <c r="G262" s="26" t="s">
@@ -11320,7 +11311,7 @@
       <c r="E263" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F263" s="44" t="s">
+      <c r="F263" s="26" t="s">
         <v>638</v>
       </c>
       <c r="G263" s="26" t="s">
@@ -11347,7 +11338,7 @@
       <c r="E264" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F264" s="45" t="s">
+      <c r="F264" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G264" s="42" t="s">
@@ -11373,7 +11364,7 @@
       <c r="E265" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F265" s="45" t="s">
+      <c r="F265" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G265" s="43" t="s">
@@ -11400,7 +11391,7 @@
       <c r="E266" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F266" s="44" t="s">
+      <c r="F266" s="26" t="s">
         <v>638</v>
       </c>
       <c r="G266" s="26" t="s">
@@ -11427,7 +11418,7 @@
       <c r="E267" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F267" s="45" t="s">
+      <c r="F267" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G267" s="42" t="s">
@@ -11454,7 +11445,7 @@
       <c r="E268" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F268" s="45" t="s">
+      <c r="F268" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G268" s="42" t="s">
@@ -11481,7 +11472,7 @@
       <c r="E269" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F269" s="45" t="s">
+      <c r="F269" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G269" s="42" t="s">
@@ -11508,7 +11499,7 @@
       <c r="E270" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F270" s="44" t="s">
+      <c r="F270" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G270" s="26" t="s">
@@ -11533,7 +11524,7 @@
       <c r="E271" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F271" s="44" t="s">
+      <c r="F271" s="26" t="s">
         <v>708</v>
       </c>
       <c r="G271" s="26" t="s">
@@ -11558,7 +11549,7 @@
       <c r="E272" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="F272" s="44" t="s">
+      <c r="F272" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G272" s="26" t="s">
@@ -11587,7 +11578,7 @@
       <c r="E273" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="F273" s="44" t="s">
+      <c r="F273" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G273" s="26" t="s">
@@ -11616,7 +11607,7 @@
       <c r="E274" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F274" s="44" t="s">
+      <c r="F274" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G274" s="26" t="s">
@@ -11643,7 +11634,7 @@
       <c r="E275" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F275" s="44" t="s">
+      <c r="F275" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G275" s="26" t="s">
@@ -11670,7 +11661,7 @@
       <c r="E276" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F276" s="44" t="s">
+      <c r="F276" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G276" s="26" t="s">
@@ -11697,15 +11688,15 @@
       <c r="E277" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F277" s="45" t="s">
-        <v>638</v>
+      <c r="F277" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G277" s="42" t="s">
         <v>949</v>
       </c>
       <c r="H277" s="26"/>
       <c r="I277" s="26" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -11724,7 +11715,7 @@
       <c r="E278" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F278" s="44" t="s">
+      <c r="F278" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G278" s="26" t="s">
@@ -11751,7 +11742,7 @@
       <c r="E279" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F279" s="44" t="s">
+      <c r="F279" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G279" s="26" t="s">
@@ -11778,7 +11769,7 @@
       <c r="E280" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F280" s="44" t="s">
+      <c r="F280" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G280" s="26" t="s">
@@ -11805,7 +11796,7 @@
       <c r="E281" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F281" s="44" t="s">
+      <c r="F281" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G281" s="26" t="s">
@@ -11832,7 +11823,7 @@
       <c r="E282" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F282" s="44" t="s">
+      <c r="F282" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G282" s="26" t="s">
@@ -11862,7 +11853,7 @@
       <c r="E283" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F283" s="44" t="s">
+      <c r="F283" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G283" s="26" t="s">
@@ -11889,7 +11880,7 @@
       <c r="E284" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F284" s="44" t="s">
+      <c r="F284" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G284" s="26" t="s">
@@ -11916,7 +11907,7 @@
       <c r="E285" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F285" s="44" t="s">
+      <c r="F285" s="26" t="s">
         <v>807</v>
       </c>
       <c r="G285" s="26" t="s">
@@ -11946,7 +11937,7 @@
       <c r="E286" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F286" s="44" t="s">
+      <c r="F286" s="26" t="s">
         <v>807</v>
       </c>
       <c r="G286" s="26" t="s">
@@ -11976,7 +11967,7 @@
       <c r="E287" s="42" t="s">
         <v>936</v>
       </c>
-      <c r="F287" s="45" t="s">
+      <c r="F287" s="42" t="s">
         <v>950</v>
       </c>
       <c r="G287" s="42" t="s">
@@ -12006,7 +11997,7 @@
       <c r="E288" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F288" s="44" t="s">
+      <c r="F288" s="26" t="s">
         <v>937</v>
       </c>
       <c r="G288" s="26" t="s">
@@ -12031,7 +12022,7 @@
       <c r="E289" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F289" s="44" t="s">
+      <c r="F289" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G289" s="26" t="s">
@@ -12060,7 +12051,7 @@
       <c r="E290" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F290" s="44" t="s">
+      <c r="F290" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G290" s="26" t="s">
@@ -12089,7 +12080,7 @@
       <c r="E291" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F291" s="44" t="s">
+      <c r="F291" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G291" s="26" t="s">
@@ -12118,7 +12109,7 @@
       <c r="E292" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F292" s="44" t="s">
+      <c r="F292" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G292" s="26" t="s">
@@ -12147,7 +12138,7 @@
       <c r="E293" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F293" s="44" t="s">
+      <c r="F293" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G293" s="26" t="s">
@@ -12176,7 +12167,7 @@
       <c r="E294" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F294" s="44" t="s">
+      <c r="F294" s="26" t="s">
         <v>641</v>
       </c>
       <c r="G294" s="26" t="s">
@@ -12203,7 +12194,7 @@
       <c r="E295" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F295" s="44" t="s">
+      <c r="F295" s="26" t="s">
         <v>785</v>
       </c>
       <c r="G295" s="26" t="s">
@@ -12230,7 +12221,7 @@
       <c r="E296" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F296" s="44" t="s">
+      <c r="F296" s="26" t="s">
         <v>773</v>
       </c>
       <c r="G296" s="26" t="s">
@@ -12255,7 +12246,7 @@
       <c r="E297" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F297" s="44" t="s">
+      <c r="F297" s="26" t="s">
         <v>775</v>
       </c>
       <c r="G297" s="26" t="s">
@@ -12280,7 +12271,7 @@
       <c r="E298" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F298" s="44" t="s">
+      <c r="F298" s="26" t="s">
         <v>644</v>
       </c>
       <c r="G298" s="26" t="s">
@@ -12305,7 +12296,7 @@
       <c r="E299" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F299" s="44" t="s">
+      <c r="F299" s="26" t="s">
         <v>645</v>
       </c>
       <c r="G299" s="26" t="s">
@@ -12330,7 +12321,7 @@
       <c r="E300" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F300" s="44" t="s">
+      <c r="F300" s="26" t="s">
         <v>962</v>
       </c>
       <c r="G300" s="26" t="s">
@@ -12355,7 +12346,7 @@
       <c r="E301" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F301" s="44" t="s">
+      <c r="F301" s="26" t="s">
         <v>848</v>
       </c>
       <c r="G301" s="26" t="s">
@@ -12380,7 +12371,7 @@
       <c r="E302" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F302" s="44" t="s">
+      <c r="F302" s="26" t="s">
         <v>849</v>
       </c>
       <c r="G302" s="26" t="s">
@@ -12405,7 +12396,7 @@
       <c r="E303" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F303" s="44" t="s">
+      <c r="F303" s="26" t="s">
         <v>850</v>
       </c>
       <c r="G303" s="26" t="s">
@@ -12430,7 +12421,7 @@
       <c r="E304" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F304" s="44" t="s">
+      <c r="F304" s="26" t="s">
         <v>658</v>
       </c>
       <c r="G304" s="26" t="s">
@@ -12455,7 +12446,7 @@
       <c r="E305" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F305" s="45" t="s">
+      <c r="F305" s="42" t="s">
         <v>643</v>
       </c>
       <c r="G305" s="42" t="s">
@@ -12482,7 +12473,7 @@
       <c r="E306" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F306" s="45" t="s">
+      <c r="F306" s="42" t="s">
         <v>643</v>
       </c>
       <c r="G306" s="42" t="s">
@@ -12509,7 +12500,7 @@
       <c r="E307" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F307" s="44" t="s">
+      <c r="F307" s="26" t="s">
         <v>778</v>
       </c>
       <c r="G307" s="26" t="s">
@@ -12534,7 +12525,7 @@
       <c r="E308" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F308" s="44" t="s">
+      <c r="F308" s="26" t="s">
         <v>696</v>
       </c>
       <c r="G308" s="26" t="s">
@@ -12559,7 +12550,7 @@
       <c r="E309" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F309" s="44" t="s">
+      <c r="F309" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G309" s="26" t="s">
@@ -12587,7 +12578,7 @@
       <c r="E310" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F310" s="44" t="s">
+      <c r="F310" s="26" t="s">
         <v>657</v>
       </c>
       <c r="G310" s="26" t="s">
@@ -12612,7 +12603,7 @@
       <c r="E311" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F311" s="44" t="s">
+      <c r="F311" s="26" t="s">
         <v>649</v>
       </c>
       <c r="G311" s="26" t="s">
@@ -12637,7 +12628,7 @@
       <c r="E312" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F312" s="44" t="s">
+      <c r="F312" s="26" t="s">
         <v>650</v>
       </c>
       <c r="G312" s="26" t="s">
@@ -12662,7 +12653,7 @@
       <c r="E313" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F313" s="44" t="s">
+      <c r="F313" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G313" s="26" t="s">
@@ -12690,7 +12681,7 @@
       <c r="E314" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F314" s="44" t="s">
+      <c r="F314" s="26" t="s">
         <v>705</v>
       </c>
       <c r="G314" s="26" t="s">
@@ -12715,7 +12706,7 @@
       <c r="E315" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F315" s="44" t="s">
+      <c r="F315" s="26" t="s">
         <v>653</v>
       </c>
       <c r="G315" s="26" t="s">
@@ -12740,7 +12731,7 @@
       <c r="E316" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F316" s="44" t="s">
+      <c r="F316" s="26" t="s">
         <v>651</v>
       </c>
       <c r="G316" s="26" t="s">
@@ -12765,7 +12756,7 @@
       <c r="E317" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F317" s="44" t="s">
+      <c r="F317" s="26" t="s">
         <v>698</v>
       </c>
       <c r="G317" s="26" t="s">
@@ -12790,7 +12781,7 @@
       <c r="E318" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F318" s="44" t="s">
+      <c r="F318" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G318" s="26" t="s">
@@ -12818,7 +12809,7 @@
       <c r="E319" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F319" s="44" t="s">
+      <c r="F319" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G319" s="26" t="s">
@@ -12846,7 +12837,7 @@
       <c r="E320" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F320" s="44" t="s">
+      <c r="F320" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G320" s="26" t="s">
@@ -12874,7 +12865,7 @@
       <c r="E321" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F321" s="44" t="s">
+      <c r="F321" s="26" t="s">
         <v>695</v>
       </c>
       <c r="G321" s="26" t="s">
@@ -12899,7 +12890,7 @@
       <c r="E322" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F322" s="44" t="s">
+      <c r="F322" s="26" t="s">
         <v>647</v>
       </c>
       <c r="G322" s="26" t="s">
@@ -12924,7 +12915,7 @@
       <c r="E323" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F323" s="44" t="s">
+      <c r="F323" s="26" t="s">
         <v>659</v>
       </c>
       <c r="G323" s="26" t="s">
@@ -12949,7 +12940,7 @@
       <c r="E324" s="42" t="s">
         <v>936</v>
       </c>
-      <c r="F324" s="44" t="s">
+      <c r="F324" s="26" t="s">
         <v>638</v>
       </c>
       <c r="G324" s="26" t="s">
@@ -12976,7 +12967,7 @@
       <c r="E325" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F325" s="44" t="s">
+      <c r="F325" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G325" s="26" t="s">
@@ -13004,7 +12995,7 @@
       <c r="E326" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F326" s="44" t="s">
+      <c r="F326" s="26" t="s">
         <v>587</v>
       </c>
       <c r="G326" s="26" t="s">
@@ -13030,7 +13021,7 @@
       <c r="E327" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F327" s="44" t="s">
+      <c r="F327" s="26" t="s">
         <v>585</v>
       </c>
       <c r="G327" s="26" t="s">
@@ -13055,7 +13046,7 @@
       <c r="E328" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F328" s="44" t="s">
+      <c r="F328" s="26" t="s">
         <v>588</v>
       </c>
       <c r="G328" s="26" t="s">
@@ -13080,7 +13071,7 @@
       <c r="E329" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F329" s="44" t="s">
+      <c r="F329" s="26" t="s">
         <v>586</v>
       </c>
       <c r="G329" s="26" t="s">
@@ -13105,7 +13096,7 @@
       <c r="E330" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F330" s="44" t="s">
+      <c r="F330" s="26" t="s">
         <v>584</v>
       </c>
       <c r="G330" s="26" t="s">
@@ -13130,7 +13121,7 @@
       <c r="E331" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F331" s="44" t="s">
+      <c r="F331" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G331" s="26" t="s">
@@ -13158,7 +13149,7 @@
       <c r="E332" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F332" s="44" t="s">
+      <c r="F332" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G332" s="26" t="s">
@@ -13186,7 +13177,7 @@
       <c r="E333" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F333" s="44" t="s">
+      <c r="F333" s="26" t="s">
         <v>593</v>
       </c>
       <c r="G333" s="26" t="s">
@@ -13212,7 +13203,7 @@
       <c r="E334" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F334" s="44" t="s">
+      <c r="F334" s="26" t="s">
         <v>592</v>
       </c>
       <c r="G334" s="26" t="s">
@@ -13238,7 +13229,7 @@
       <c r="E335" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F335" s="44" t="s">
+      <c r="F335" s="26" t="s">
         <v>1036</v>
       </c>
       <c r="G335" s="26" t="s">
@@ -13264,7 +13255,7 @@
       <c r="E336" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F336" s="44" t="s">
+      <c r="F336" s="26" t="s">
         <v>590</v>
       </c>
       <c r="G336" s="26" t="s">
@@ -13289,7 +13280,7 @@
       <c r="E337" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F337" s="44" t="s">
+      <c r="F337" s="26" t="s">
         <v>589</v>
       </c>
       <c r="G337" s="26" t="s">
@@ -13314,7 +13305,7 @@
       <c r="E338" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F338" s="44" t="s">
+      <c r="F338" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G338" s="26" t="s">
@@ -13342,7 +13333,7 @@
       <c r="E339" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F339" s="44" t="s">
+      <c r="F339" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G339" s="26" t="s">
@@ -13370,7 +13361,7 @@
       <c r="E340" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F340" s="44" t="s">
+      <c r="F340" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G340" s="26" t="s">
@@ -13398,7 +13389,7 @@
       <c r="E341" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F341" s="44" t="s">
+      <c r="F341" s="26" t="s">
         <v>672</v>
       </c>
       <c r="G341" s="26" t="s">
@@ -13423,7 +13414,7 @@
       <c r="E342" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F342" s="44" t="s">
+      <c r="F342" s="26" t="s">
         <v>715</v>
       </c>
       <c r="G342" s="26" t="s">
@@ -13448,7 +13439,7 @@
       <c r="E343" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F343" s="44" t="s">
+      <c r="F343" s="26" t="s">
         <v>712</v>
       </c>
       <c r="G343" s="26" t="s">
@@ -13473,7 +13464,7 @@
       <c r="E344" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F344" s="44" t="s">
+      <c r="F344" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G344" s="26" t="s">
@@ -13501,7 +13492,7 @@
       <c r="E345" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F345" s="44" t="s">
+      <c r="F345" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G345" s="26" t="s">
@@ -13529,7 +13520,7 @@
       <c r="E346" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F346" s="44" t="s">
+      <c r="F346" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G346" s="26" t="s">
@@ -13557,7 +13548,7 @@
       <c r="E347" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F347" s="44" t="s">
+      <c r="F347" s="26" t="s">
         <v>745</v>
       </c>
       <c r="G347" s="26" t="s">
@@ -13583,7 +13574,7 @@
       <c r="E348" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F348" s="44" t="s">
+      <c r="F348" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G348" s="26" t="s">
@@ -13611,7 +13602,7 @@
       <c r="E349" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F349" s="44" t="s">
+      <c r="F349" s="26" t="s">
         <v>749</v>
       </c>
       <c r="G349" s="26" t="s">
@@ -13636,7 +13627,7 @@
       <c r="E350" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F350" s="44" t="s">
+      <c r="F350" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G350" s="26" t="s">
@@ -13664,7 +13655,7 @@
       <c r="E351" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F351" s="44" t="s">
+      <c r="F351" s="26" t="s">
         <v>747</v>
       </c>
       <c r="G351" s="26" t="s">
@@ -13689,7 +13680,7 @@
       <c r="E352" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F352" s="44" t="s">
+      <c r="F352" s="26" t="s">
         <v>939</v>
       </c>
       <c r="G352" s="26" t="s">
@@ -13717,7 +13708,7 @@
       <c r="E353" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F353" s="44" t="s">
+      <c r="F353" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G353" s="26" t="s">
@@ -13747,7 +13738,7 @@
       <c r="E354" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F354" s="44" t="s">
+      <c r="F354" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G354" s="26" t="s">
@@ -13777,7 +13768,7 @@
       <c r="E355" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="F355" s="44" t="s">
+      <c r="F355" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G355" s="26" t="s">
@@ -13806,7 +13797,7 @@
       <c r="E356" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="F356" s="44" t="s">
+      <c r="F356" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G356" s="26" t="s">
@@ -13835,7 +13826,7 @@
       <c r="E357" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="F357" s="44" t="s">
+      <c r="F357" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G357" s="26" t="s">
@@ -13864,7 +13855,7 @@
       <c r="E358" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F358" s="45" t="s">
+      <c r="F358" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G358" s="42" t="s">
@@ -13891,7 +13882,7 @@
       <c r="E359" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F359" s="45" t="s">
+      <c r="F359" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G359" s="42" t="s">
@@ -13918,7 +13909,7 @@
       <c r="E360" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F360" s="44" t="s">
+      <c r="F360" s="26" t="s">
         <v>810</v>
       </c>
       <c r="G360" s="26" t="s">
@@ -13945,7 +13936,7 @@
       <c r="E361" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F361" s="44" t="s">
+      <c r="F361" s="26" t="s">
         <v>708</v>
       </c>
       <c r="G361" s="26" t="s">
@@ -13970,7 +13961,7 @@
       <c r="E362" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F362" s="44" t="s">
+      <c r="F362" s="26" t="s">
         <v>696</v>
       </c>
       <c r="G362" s="26" t="s">
@@ -13995,7 +13986,7 @@
       <c r="E363" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F363" s="44" t="s">
+      <c r="F363" s="26" t="s">
         <v>647</v>
       </c>
       <c r="G363" s="26" t="s">
@@ -14020,7 +14011,7 @@
       <c r="E364" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F364" s="44" t="s">
+      <c r="F364" s="26" t="s">
         <v>653</v>
       </c>
       <c r="G364" s="26" t="s">
@@ -14045,7 +14036,7 @@
       <c r="E365" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F365" s="44" t="s">
+      <c r="F365" s="26" t="s">
         <v>651</v>
       </c>
       <c r="G365" s="26" t="s">
@@ -14070,7 +14061,7 @@
       <c r="E366" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F366" s="44" t="s">
+      <c r="F366" s="26" t="s">
         <v>698</v>
       </c>
       <c r="G366" s="26" t="s">
@@ -14095,7 +14086,7 @@
       <c r="E367" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F367" s="44" t="s">
+      <c r="F367" s="26" t="s">
         <v>587</v>
       </c>
       <c r="G367" s="26" t="s">
@@ -14121,7 +14112,7 @@
       <c r="E368" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F368" s="44" t="s">
+      <c r="F368" s="26" t="s">
         <v>585</v>
       </c>
       <c r="G368" s="26" t="s">
@@ -14146,7 +14137,7 @@
       <c r="E369" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F369" s="44" t="s">
+      <c r="F369" s="26" t="s">
         <v>588</v>
       </c>
       <c r="G369" s="26" t="s">
@@ -14171,7 +14162,7 @@
       <c r="E370" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F370" s="44" t="s">
+      <c r="F370" s="26" t="s">
         <v>586</v>
       </c>
       <c r="G370" s="26" t="s">
@@ -14196,7 +14187,7 @@
       <c r="E371" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F371" s="44" t="s">
+      <c r="F371" s="26" t="s">
         <v>584</v>
       </c>
       <c r="G371" s="26" t="s">
@@ -14221,7 +14212,7 @@
       <c r="E372" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F372" s="44" t="s">
+      <c r="F372" s="26" t="s">
         <v>593</v>
       </c>
       <c r="G372" s="26" t="s">
@@ -14246,7 +14237,7 @@
       <c r="E373" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F373" s="44" t="s">
+      <c r="F373" s="26" t="s">
         <v>592</v>
       </c>
       <c r="G373" s="26" t="s">
@@ -14271,7 +14262,7 @@
       <c r="E374" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F374" s="44" t="s">
+      <c r="F374" s="26" t="s">
         <v>1036</v>
       </c>
       <c r="G374" s="26" t="s">
@@ -14296,7 +14287,7 @@
       <c r="E375" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F375" s="44" t="s">
+      <c r="F375" s="26" t="s">
         <v>590</v>
       </c>
       <c r="G375" s="26" t="s">
@@ -14321,7 +14312,7 @@
       <c r="E376" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F376" s="44" t="s">
+      <c r="F376" s="26" t="s">
         <v>589</v>
       </c>
       <c r="G376" s="26" t="s">
@@ -14346,13 +14337,15 @@
       <c r="E377" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F377" s="44" t="s">
+      <c r="F377" s="26" t="s">
         <v>638</v>
       </c>
       <c r="G377" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="H377" s="26"/>
+      <c r="H377" s="26" t="s">
+        <v>967</v>
+      </c>
       <c r="I377" s="26"/>
     </row>
     <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14371,7 +14364,7 @@
       <c r="E378" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F378" s="45" t="s">
+      <c r="F378" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G378" s="42" t="s">
@@ -14397,7 +14390,7 @@
       <c r="E379" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F379" s="44" t="s">
+      <c r="F379" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G379" s="26" t="s">
@@ -14426,7 +14419,7 @@
       <c r="E380" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F380" s="44" t="s">
+      <c r="F380" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G380" s="26" t="s">
@@ -14455,7 +14448,7 @@
       <c r="E381" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F381" s="44" t="s">
+      <c r="F381" s="26" t="s">
         <v>641</v>
       </c>
       <c r="G381" s="26" t="s">
@@ -14485,7 +14478,7 @@
       <c r="E382" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F382" s="44" t="s">
+      <c r="F382" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G382" s="26" t="s">
@@ -14514,7 +14507,7 @@
       <c r="E383" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F383" s="44" t="s">
+      <c r="F383" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G383" s="26" t="s">
@@ -14543,7 +14536,7 @@
       <c r="E384" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F384" s="44" t="s">
+      <c r="F384" s="26" t="s">
         <v>661</v>
       </c>
       <c r="G384" s="26" t="s">
@@ -14572,7 +14565,7 @@
       <c r="E385" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F385" s="44" t="s">
+      <c r="F385" s="26" t="s">
         <v>672</v>
       </c>
       <c r="G385" s="26" t="s">
@@ -14597,7 +14590,7 @@
       <c r="E386" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F386" s="44" t="s">
+      <c r="F386" s="26" t="s">
         <v>715</v>
       </c>
       <c r="G386" s="26" t="s">
@@ -14622,7 +14615,7 @@
       <c r="E387" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F387" s="44" t="s">
+      <c r="F387" s="26" t="s">
         <v>745</v>
       </c>
       <c r="G387" s="26" t="s">
@@ -14648,7 +14641,7 @@
       <c r="E388" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F388" s="44" t="s">
+      <c r="F388" s="26" t="s">
         <v>749</v>
       </c>
       <c r="G388" s="26" t="s">
@@ -14673,7 +14666,7 @@
       <c r="E389" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F389" s="44" t="s">
+      <c r="F389" s="26" t="s">
         <v>747</v>
       </c>
       <c r="G389" s="26" t="s">
@@ -14698,7 +14691,7 @@
       <c r="E390" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F390" s="44" t="s">
+      <c r="F390" s="26" t="s">
         <v>644</v>
       </c>
       <c r="G390" s="26" t="s">
@@ -14723,7 +14716,7 @@
       <c r="E391" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F391" s="44" t="s">
+      <c r="F391" s="26" t="s">
         <v>645</v>
       </c>
       <c r="G391" s="26" t="s">
@@ -14748,7 +14741,7 @@
       <c r="E392" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F392" s="45" t="s">
+      <c r="F392" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G392" s="43" t="s">
@@ -14775,7 +14768,7 @@
       <c r="E393" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F393" s="45" t="s">
+      <c r="F393" s="42" t="s">
         <v>638</v>
       </c>
       <c r="G393" s="42" t="s">
@@ -14802,11 +14795,11 @@
       <c r="E394" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F394" s="44" t="s">
-        <v>803</v>
-      </c>
-      <c r="G394" s="26" t="s">
-        <v>803</v>
+      <c r="F394" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="G394" s="42" t="s">
+        <v>638</v>
       </c>
       <c r="H394" s="27" t="s">
         <v>980</v>
@@ -14829,7 +14822,7 @@
       <c r="E395" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F395" s="44" t="s">
+      <c r="F395" s="26" t="s">
         <v>942</v>
       </c>
       <c r="G395" s="26" t="s">
@@ -14854,7 +14847,7 @@
       <c r="E396" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F396" s="44" t="s">
+      <c r="F396" s="26" t="s">
         <v>937</v>
       </c>
       <c r="G396" s="26" t="s">
@@ -14879,7 +14872,7 @@
       <c r="E397" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F397" s="44" t="s">
+      <c r="F397" s="26" t="s">
         <v>773</v>
       </c>
       <c r="G397" s="26" t="s">
@@ -14904,7 +14897,7 @@
       <c r="E398" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F398" s="44" t="s">
+      <c r="F398" s="26" t="s">
         <v>775</v>
       </c>
       <c r="G398" s="26" t="s">
@@ -14929,7 +14922,7 @@
       <c r="E399" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F399" s="44" t="s">
+      <c r="F399" s="26" t="s">
         <v>848</v>
       </c>
       <c r="G399" s="26" t="s">
@@ -14954,7 +14947,7 @@
       <c r="E400" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F400" s="44" t="s">
+      <c r="F400" s="26" t="s">
         <v>849</v>
       </c>
       <c r="G400" s="26" t="s">
@@ -14979,7 +14972,7 @@
       <c r="E401" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F401" s="44" t="s">
+      <c r="F401" s="26" t="s">
         <v>850</v>
       </c>
       <c r="G401" s="26" t="s">
@@ -15004,7 +14997,7 @@
       <c r="E402" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F402" s="44" t="s">
+      <c r="F402" s="26" t="s">
         <v>962</v>
       </c>
       <c r="G402" s="26" t="s">
@@ -15028,7 +15021,7 @@
       <c r="E403" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F403" s="44" t="s">
+      <c r="F403" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G403" s="26" t="s">
@@ -15062,7 +15055,7 @@
       <c r="E404" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F404" s="44" t="s">
+      <c r="F404" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G404" s="26" t="s">
@@ -15096,7 +15089,7 @@
       <c r="E405" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F405" s="44" t="s">
+      <c r="F405" s="26" t="s">
         <v>638</v>
       </c>
       <c r="G405" s="26" t="s">
@@ -15130,7 +15123,7 @@
       <c r="E406" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F406" s="44" t="s">
+      <c r="F406" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G406" s="26" t="s">
@@ -15164,7 +15157,7 @@
       <c r="E407" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F407" s="44" t="s">
+      <c r="F407" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G407" s="26" t="s">
@@ -15198,7 +15191,7 @@
       <c r="E408" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F408" s="44" t="s">
+      <c r="F408" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G408" s="26" t="s">
@@ -15232,7 +15225,7 @@
       <c r="E409" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F409" s="44" t="s">
+      <c r="F409" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G409" s="26" t="s">
@@ -15266,7 +15259,7 @@
       <c r="E410" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F410" s="44" t="s">
+      <c r="F410" s="26" t="s">
         <v>643</v>
       </c>
       <c r="G410" s="26" t="s">
@@ -15300,15 +15293,15 @@
       <c r="E411" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="F411" s="45" t="s">
-        <v>638</v>
+      <c r="F411" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G411" s="42" t="s">
         <v>949</v>
       </c>
       <c r="H411" s="26"/>
       <c r="I411" s="26" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J411" s="26" t="s">
         <v>1074</v>
@@ -15334,7 +15327,7 @@
       <c r="E412" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F412" s="44" t="s">
+      <c r="F412" s="26" t="s">
         <v>658</v>
       </c>
       <c r="G412" s="26" t="s">
@@ -15366,8 +15359,8 @@
       <c r="E413" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F413" s="45" t="s">
-        <v>638</v>
+      <c r="F413" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G413" s="42" t="s">
         <v>960</v>
@@ -15400,8 +15393,8 @@
       <c r="E414" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="F414" s="45" t="s">
-        <v>638</v>
+      <c r="F414" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="G414" s="42" t="s">
         <v>961</v>
@@ -15434,7 +15427,7 @@
       <c r="E415" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F415" s="44" t="s">
+      <c r="F415" s="26" t="s">
         <v>807</v>
       </c>
       <c r="G415" s="26" t="s">
@@ -15468,7 +15461,7 @@
       <c r="E416" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F416" s="44" t="s">
+      <c r="F416" s="26" t="s">
         <v>807</v>
       </c>
       <c r="G416" s="26" t="s">
@@ -15502,7 +15495,7 @@
       <c r="E417" s="42" t="s">
         <v>936</v>
       </c>
-      <c r="F417" s="45" t="s">
+      <c r="F417" s="42" t="s">
         <v>950</v>
       </c>
       <c r="G417" s="42" t="s">
@@ -15536,7 +15529,7 @@
       <c r="E418" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="F418" s="45" t="s">
+      <c r="F418" s="42" t="s">
         <v>705</v>
       </c>
       <c r="G418" s="42" t="s">
@@ -15568,7 +15561,7 @@
       <c r="E419" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F419" s="44" t="s">
+      <c r="F419" s="26" t="s">
         <v>649</v>
       </c>
       <c r="G419" s="26" t="s">
@@ -15600,7 +15593,7 @@
       <c r="E420" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="F420" s="44" t="s">
+      <c r="F420" s="26" t="s">
         <v>650</v>
       </c>
       <c r="G420" s="26" t="s">
@@ -15632,7 +15625,7 @@
       <c r="E421" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F421" s="44" t="s">
+      <c r="F421" s="26" t="s">
         <v>695</v>
       </c>
       <c r="G421" s="26" t="s">
@@ -23846,7 +23839,7 @@
     <sortCondition ref="A2:A544"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E7:E8 E11:E13 E15:E23 E25:E35 E38 E41:E100 E102:E118 E121:E144 E146:E173 E175 E177:E197 E199:E217 E219:E236 E238 E241:E250 E252 E266 E278:E286 E289:E304 E307:E323 E360:E376 I382:I384 E397:E410 E412 E415:E416 E419:E421 E325:E357 E270:E276 E255:E263 F377:G377 F381:G381 F385:G391 F395:G396 E1:E4 E3146:E1048576">
+  <conditionalFormatting sqref="E1:E4 E7:E8 E11:E13 E15:E23 E25:E35 E38 E41:E100 E102:E118 E121:E144 E146:E173 E175 E177:E197 E199:E217 E219:E236 E238 E241:E250 E252 E255:E263 E266 E270:E276 E278:E286 E289:E304 E307:E323 E325:E357 E360:E376 F377:G377 F381:G381 I382:I384 F385:G391 F395:G396 E397:E410 E412 E415:E416 E419:E421 E3146:E1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25184,15 +25177,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005096E86C82FA8C4AA9C6C4E3CB43FBC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3691e5212bdf4535f084bb6029a7aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4539b44-c7c4-4ec8-bb6c-675c694d1d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63488d226906f1373fe69f5df23de5c6" ns2:_="">
     <xsd:import namespace="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
@@ -25350,6 +25334,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -25357,14 +25350,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25378,6 +25363,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/input/mapping/BFDR_Forms_Mapping.xlsx
+++ b/input/mapping/BFDR_Forms_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\vr-common-library\input\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423C5A9-AE76-403D-93B1-9D360F0B7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF9EAE-BEE0-4577-9ED1-2BA5798749E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
+    <workbookView xWindow="-16320" yWindow="-345" windowWidth="16440" windowHeight="28440" xr2:uid="{ACEEEFC1-119A-4604-8A47-90C3C0B12F90}"/>
   </bookViews>
   <sheets>
     <sheet name="BFDR Form Items" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1081">
   <si>
     <t>2. What is your current legal name?</t>
   </si>
@@ -3472,6 +3472,9 @@
   </si>
   <si>
     <t>Mapping Profile</t>
+  </si>
+  <si>
+    <t>2016 US Standard Mother’s Worksheet for Child’s Birth Certificate</t>
   </si>
 </sst>
 </file>
@@ -4191,10 +4194,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18068277-4716-4691-B560-92987FEB33E6}">
   <dimension ref="A1:L3145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
+      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10252,7 +10255,7 @@
         <v>242</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C231" s="36" t="s">
         <v>945</v>
@@ -10286,7 +10289,7 @@
         <v>243</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C232" s="36" t="s">
         <v>945</v>
@@ -10320,7 +10323,7 @@
         <v>244</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C233" s="36" t="s">
         <v>945</v>
@@ -10354,7 +10357,7 @@
         <v>245</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C234" s="36" t="s">
         <v>945</v>
@@ -10388,7 +10391,7 @@
         <v>246</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C235" s="36" t="s">
         <v>945</v>
@@ -10422,7 +10425,7 @@
         <v>247</v>
       </c>
       <c r="B236" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C236" s="36" t="s">
         <v>945</v>
@@ -10456,7 +10459,7 @@
         <v>250</v>
       </c>
       <c r="B237" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C237" s="36" t="s">
         <v>945</v>
@@ -10490,7 +10493,7 @@
         <v>248</v>
       </c>
       <c r="B238" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C238" s="36" t="s">
         <v>945</v>
@@ -10522,7 +10525,7 @@
         <v>249</v>
       </c>
       <c r="B239" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C239" s="36" t="s">
         <v>945</v>
@@ -10556,7 +10559,7 @@
         <v>251</v>
       </c>
       <c r="B240" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C240" s="36" t="s">
         <v>945</v>
@@ -10590,7 +10593,7 @@
         <v>252</v>
       </c>
       <c r="B241" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C241" s="36" t="s">
         <v>945</v>
@@ -10622,7 +10625,7 @@
         <v>253</v>
       </c>
       <c r="B242" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C242" s="36" t="s">
         <v>945</v>
@@ -10654,7 +10657,7 @@
         <v>254</v>
       </c>
       <c r="B243" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C243" s="36" t="s">
         <v>945</v>
@@ -10686,7 +10689,7 @@
         <v>255</v>
       </c>
       <c r="B244" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C244" s="36" t="s">
         <v>945</v>
@@ -10718,7 +10721,7 @@
         <v>256</v>
       </c>
       <c r="B245" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C245" s="36" t="s">
         <v>945</v>
@@ -10750,7 +10753,7 @@
         <v>257</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C246" s="36" t="s">
         <v>945</v>
@@ -10782,7 +10785,7 @@
         <v>258</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C247" s="36" t="s">
         <v>945</v>
@@ -10816,7 +10819,7 @@
         <v>259</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C248" s="36" t="s">
         <v>945</v>
@@ -10848,7 +10851,7 @@
         <v>260</v>
       </c>
       <c r="B249" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C249" s="36" t="s">
         <v>945</v>
@@ -10882,7 +10885,7 @@
         <v>261</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C250" s="36" t="s">
         <v>945</v>
@@ -10916,7 +10919,7 @@
         <v>262</v>
       </c>
       <c r="B251" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C251" s="36" t="s">
         <v>945</v>
@@ -10950,7 +10953,7 @@
         <v>263</v>
       </c>
       <c r="B252" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C252" s="36" t="s">
         <v>945</v>
@@ -10982,7 +10985,7 @@
         <v>264</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>945</v>
@@ -11016,7 +11019,7 @@
         <v>265</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C254" s="36" t="s">
         <v>945</v>
@@ -11050,7 +11053,7 @@
         <v>266</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C255" s="36" t="s">
         <v>945</v>
@@ -11084,7 +11087,7 @@
         <v>267</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C256" s="36" t="s">
         <v>945</v>
@@ -11118,7 +11121,7 @@
         <v>268</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C257" s="36" t="s">
         <v>945</v>
@@ -11150,7 +11153,7 @@
         <v>269</v>
       </c>
       <c r="B258" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C258" s="36" t="s">
         <v>945</v>
@@ -11182,7 +11185,7 @@
         <v>270</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C259" s="36" t="s">
         <v>945</v>
@@ -11214,7 +11217,7 @@
         <v>271</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>241</v>
+        <v>1080</v>
       </c>
       <c r="C260" s="36" t="s">
         <v>945</v>
@@ -25177,6 +25180,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005096E86C82FA8C4AA9C6C4E3CB43FBC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3691e5212bdf4535f084bb6029a7aa1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4539b44-c7c4-4ec8-bb6c-675c694d1d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63488d226906f1373fe69f5df23de5c6" ns2:_="">
     <xsd:import namespace="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
@@ -25334,22 +25352,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882DA5ED-705A-42B5-AB41-BAC56582EABB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25365,28 +25392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22ACDB4-6B13-48E1-9AE1-6958D7FFB816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{165280DC-A6C9-4115-B38B-99D6C7727386}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b4539b44-c7c4-4ec8-bb6c-675c694d1d58"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>